--- a/tables/block1_cond1.xlsx
+++ b/tables/block1_cond1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Вуз\Диплом\Program\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB13C0C-A36D-49B0-9032-86FADBA39E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5074D8-0B34-4C3B-BC6D-5225D16C8627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>rebus_variants</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Как до луны</t>
+  </si>
+  <si>
+    <t>Нейтральное</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,7 +863,7 @@
         <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="J8">
         <v>1</v>

--- a/tables/block1_cond1.xlsx
+++ b/tables/block1_cond1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Вуз\Диплом\Program\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5074D8-0B34-4C3B-BC6D-5225D16C8627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3CBD44-E134-4D7D-BDB6-91282B5844D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,9 +258,6 @@
     <t>pics/Surprise!/surprise_10</t>
   </si>
   <si>
-    <t>pics/Happiness/happy_8.png</t>
-  </si>
-  <si>
     <t>pics/Sadness/sadness_3.png</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>Нейтральное</t>
+  </si>
+  <si>
+    <t>pics/Happiness/Happy_8.png</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,10 +647,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -863,7 +863,7 @@
         <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>57</v>
@@ -944,7 +944,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
         <v>43</v>
